--- a/Kapoot.xlsx
+++ b/Kapoot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e025553\OneDrive - Elbit Systems 365\Documents\Work\StreamLit_Kapoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F363C27-60BB-4931-929D-81DBFEB0FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3917A-5293-462B-BFC5-FD7FF865A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="203">
   <si>
     <t>גובה</t>
   </si>
@@ -96,54 +96,6 @@
     <t>טריויה</t>
   </si>
   <si>
-    <t>שלי</t>
-  </si>
-  <si>
-    <t>הוך</t>
-  </si>
-  <si>
-    <t>איגור</t>
-  </si>
-  <si>
-    <t>מאור</t>
-  </si>
-  <si>
-    <t>ליאורה</t>
-  </si>
-  <si>
-    <t>אורן</t>
-  </si>
-  <si>
-    <t>איתן</t>
-  </si>
-  <si>
-    <t>רועי</t>
-  </si>
-  <si>
-    <t>שמעון</t>
-  </si>
-  <si>
-    <t>רומן</t>
-  </si>
-  <si>
-    <t>אלעד</t>
-  </si>
-  <si>
-    <t>אופיר</t>
-  </si>
-  <si>
-    <t>אריק</t>
-  </si>
-  <si>
-    <t>אביחי</t>
-  </si>
-  <si>
-    <t>אלחי</t>
-  </si>
-  <si>
-    <t>טמיר</t>
-  </si>
-  <si>
     <t>נס-ציונה</t>
   </si>
   <si>
@@ -183,9 +135,6 @@
     <t>מדע</t>
   </si>
   <si>
-    <t>סרגוסי</t>
-  </si>
-  <si>
     <t>לידה</t>
   </si>
   <si>
@@ -222,9 +171,6 @@
     <t>הסטוריה</t>
   </si>
   <si>
-    <t>עזריאל</t>
-  </si>
-  <si>
     <t>נחלים</t>
   </si>
   <si>
@@ -264,9 +210,6 @@
     <t>סוכות</t>
   </si>
   <si>
-    <t>מור-סיקורל</t>
-  </si>
-  <si>
     <t>גבעתיים</t>
   </si>
   <si>
@@ -321,9 +264,6 @@
     <t>ספרות</t>
   </si>
   <si>
-    <t>יהודאי</t>
-  </si>
-  <si>
     <t>רחובות</t>
   </si>
   <si>
@@ -333,9 +273,6 @@
     <t>בתולה</t>
   </si>
   <si>
-    <t>ברסט</t>
-  </si>
-  <si>
     <t>קסטה</t>
   </si>
   <si>
@@ -357,9 +294,6 @@
     <t>אף אחד לא עוזב את פאלו אלטו</t>
   </si>
   <si>
-    <t>חיאט</t>
-  </si>
-  <si>
     <t>פתח-תקווה</t>
   </si>
   <si>
@@ -378,9 +312,6 @@
     <t>פולקסווגן טיגואן</t>
   </si>
   <si>
-    <t>אוטולנגי</t>
-  </si>
-  <si>
     <t>עוגת-גבינה</t>
   </si>
   <si>
@@ -399,9 +330,6 @@
     <t>ליקר</t>
   </si>
   <si>
-    <t>סלוצקי</t>
-  </si>
-  <si>
     <t>דובדבן</t>
   </si>
   <si>
@@ -426,9 +354,6 @@
     <t>חדשות</t>
   </si>
   <si>
-    <t>בכר</t>
-  </si>
-  <si>
     <t>יבנה</t>
   </si>
   <si>
@@ -447,12 +372,6 @@
     <t>דביר</t>
   </si>
   <si>
-    <t>שחר</t>
-  </si>
-  <si>
-    <t>נדזבצקי</t>
-  </si>
-  <si>
     <t>ראשון-לציון</t>
   </si>
   <si>
@@ -477,9 +396,6 @@
     <t>ספורט</t>
   </si>
   <si>
-    <t>גלבוע</t>
-  </si>
-  <si>
     <t>מלבי</t>
   </si>
   <si>
@@ -516,9 +432,6 @@
     <t>עוגת-גזר</t>
   </si>
   <si>
-    <t>וגר</t>
-  </si>
-  <si>
     <t>שטרודל-תפוחים</t>
   </si>
   <si>
@@ -676,6 +589,51 @@
   </si>
   <si>
     <t>Bodies</t>
+  </si>
+  <si>
+    <t>א</t>
+  </si>
+  <si>
+    <t>ב</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>ט</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>כ</t>
+  </si>
+  <si>
+    <t>ל</t>
+  </si>
+  <si>
+    <t>מ</t>
+  </si>
+  <si>
+    <t>נ</t>
+  </si>
+  <si>
+    <t>ס</t>
+  </si>
+  <si>
+    <t>ד</t>
   </si>
 </sst>
 </file>
@@ -1017,24 +975,21 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="1"/>
+    <col min="1" max="7" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="11" max="11" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1075,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -1090,10 +1045,10 @@
         <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>16</v>
@@ -1108,13 +1063,13 @@
         <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>21</v>
@@ -1123,12 +1078,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1">
         <v>1984</v>
@@ -1137,87 +1092,87 @@
         <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="R2" s="1">
         <v>40</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="W2" s="1">
         <v>205</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>1981</v>
@@ -1226,87 +1181,87 @@
         <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="R3" s="1">
         <v>37</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W3" s="1">
         <v>206</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1">
         <v>2001</v>
@@ -1315,87 +1270,87 @@
         <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="R4" s="1">
         <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="W4" s="1">
         <v>18</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1">
         <v>1982</v>
@@ -1404,87 +1359,87 @@
         <v>175</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R5" s="1">
         <v>43</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="W5" s="1">
         <v>180</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1">
         <v>1978</v>
@@ -1493,87 +1448,87 @@
         <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1">
         <v>43</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="W6" s="1">
         <v>237</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2">
         <v>1975</v>
@@ -1582,87 +1537,87 @@
         <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="R7" s="1">
         <v>46</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="W7" s="1">
         <v>170</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1">
         <v>1974</v>
@@ -1671,87 +1626,87 @@
         <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="R8" s="1">
         <v>44</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="W8" s="1">
         <v>15</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="C9" s="1">
         <v>1988</v>
@@ -1760,87 +1715,87 @@
         <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="R9" s="1">
         <v>45</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W9" s="1">
         <v>60</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1">
         <v>1965</v>
@@ -1849,87 +1804,87 @@
         <v>184</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="R10" s="1">
         <v>46</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="W10" s="1">
         <v>380</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1">
         <v>1987</v>
@@ -1938,87 +1893,87 @@
         <v>186</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="R11" s="1">
         <v>46</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="W11" s="1">
         <v>28</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1">
         <v>1983</v>
@@ -2027,87 +1982,87 @@
         <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="R12" s="1">
         <v>43</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="W12" s="1">
         <v>105</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C13" s="1">
         <v>1990</v>
@@ -2116,87 +2071,87 @@
         <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="R13" s="1">
         <v>43</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W13" s="1">
         <v>1</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1">
         <v>1988</v>
@@ -2205,87 +2160,87 @@
         <v>171</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="R14" s="1">
         <v>43</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="W14" s="1">
         <v>127</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1">
         <v>1975</v>
@@ -2294,87 +2249,87 @@
         <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="I15" s="1">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="R15" s="1">
         <v>45</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1">
         <v>1980</v>
@@ -2383,79 +2338,79 @@
         <v>182</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R16" s="1">
         <v>43</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="W16" s="1">
         <v>9</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
